--- a/docs/ApiSpec.xlsx
+++ b/docs/ApiSpec.xlsx
@@ -1680,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1726,7 +1726,7 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/docs/ApiSpec.xlsx
+++ b/docs/ApiSpec.xlsx
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/docs/ApiSpec.xlsx
+++ b/docs/ApiSpec.xlsx
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/docs/ApiSpec.xlsx
+++ b/docs/ApiSpec.xlsx
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/docs/ApiSpec.xlsx
+++ b/docs/ApiSpec.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Method</t>
   </si>
@@ -1321,6 +1321,39 @@
     "id": 5,
     "name": "Babydoll",
     "checked": false
+  }
+]</t>
+  </si>
+  <si>
+    <t>https://localhost:44354/api/User/List</t>
+  </si>
+  <si>
+    <t>{
+  "pageIndex": 1,
+  "pageSize": 10
+}</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": "238a18b4-3b1e-4903-ae0d-261d806e7628",
+    "name": "Huy Truc",
+    "phone": null
+  },
+  {
+    "id": "347f48c5-a8b9-40fc-a678-e9d681ff423b",
+    "name": "Huy Truc",
+    "phone": null
+  },
+  {
+    "id": "6058335f-e71f-40c0-b9cf-f37603750cef",
+    "name": "Linh My",
+    "phone": null
+  },
+  {
+    "id": "c278c67a-2723-4ee3-a78d-e5d11f6feb6f",
+    "name": "Van Trang",
+    "phone": null
   }
 ]</t>
   </si>
@@ -1678,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1742,149 +1775,152 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1892,10 +1928,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1903,139 +1939,151 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F24" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C14" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17:C18" r:id="rId16" display="https://localhost:44354/api/ManageSubCategory/"/>
-    <hyperlink ref="C17" r:id="rId17"/>
-    <hyperlink ref="C18" r:id="rId18"/>
-    <hyperlink ref="C19" r:id="rId19"/>
-    <hyperlink ref="C20" r:id="rId20"/>
-    <hyperlink ref="C21" r:id="rId21"/>
-    <hyperlink ref="C22" r:id="rId22"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C18:C19" r:id="rId16" display="https://localhost:44354/api/ManageSubCategory/"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C3" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>